--- a/V1.1/PCB/PickAndPlace_PCB V1.1.xlsx
+++ b/V1.1/PCB/PickAndPlace_PCB V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB V1.1_2024-08-1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB V1.1_SMA_2024-" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/V1.1/PCB/PickAndPlace_PCB V1.1.xlsx
+++ b/V1.1/PCB/PickAndPlace_PCB V1.1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
   <si>
     <t>Designator</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Supplier Part</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>C124378</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>C96446</t>
+  </si>
+  <si>
     <t>C8</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>63.373mm</t>
   </si>
   <si>
+    <t>C14663</t>
+  </si>
+  <si>
     <t>C10</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>23.454mm</t>
   </si>
   <si>
+    <t>C5120765</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
@@ -172,6 +187,9 @@
     <t>46.212mm</t>
   </si>
   <si>
+    <t>C28323</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
     <t>16.427mm</t>
   </si>
   <si>
+    <t>C16133</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -214,6 +235,12 @@
     <t>4.77mm</t>
   </si>
   <si>
+    <t>Pi Header</t>
+  </si>
+  <si>
+    <t>C2977589</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
@@ -235,6 +262,9 @@
     <t>41.773mm</t>
   </si>
   <si>
+    <t>C411294</t>
+  </si>
+  <si>
     <t>RF1</t>
   </si>
   <si>
@@ -256,6 +286,9 @@
     <t>54.356mm</t>
   </si>
   <si>
+    <t>C914555</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
@@ -274,6 +307,9 @@
     <t>37.794mm</t>
   </si>
   <si>
+    <t>C11702</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -292,6 +328,9 @@
     <t>18.526mm</t>
   </si>
   <si>
+    <t>C86038</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
@@ -311,6 +350,9 @@
   </si>
   <si>
     <t>57.15mm</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>J3</t>
@@ -705,16 +747,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="14" width="20" customWidth="1"/>
+    <col min="1" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,797 +799,854 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4">
         <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <v>270</v>
       </c>
       <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6">
         <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>270</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <v>270</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J11">
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <v>180</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12">
         <v>180</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14">
         <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15">
         <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16">
         <v>270</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17">
         <v>270</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18">
         <v>180</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <v>180</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="O19" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
